--- a/data/trans_orig/IP07A27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{ADE8CE40-DE44-4FC0-ACFC-283476B025E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{695B3769-446E-4CA4-B696-8B4BA80B6A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{41CA4BE6-F1DE-48E6-91CE-500F136F7238}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6810DAFC-52E3-4AF8-970A-E21BFC0F4788}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -65,10 +65,259 @@
     <t>lím sup IC</t>
   </si>
   <si>
+    <t>Menos de 2</t>
+  </si>
+  <si>
+    <t>Nunca</t>
+  </si>
+  <si>
+    <t>100,0%</t>
+  </si>
+  <si>
+    <t>81,26%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>84,49%</t>
+  </si>
+  <si>
+    <t>55,9%</t>
+  </si>
+  <si>
+    <t>90,72%</t>
+  </si>
+  <si>
+    <t>71,21%</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>2/10</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>60,53%</t>
+  </si>
+  <si>
+    <t>85,24%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>70,55%</t>
+  </si>
+  <si>
+    <t>89,62%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>69,12%</t>
+  </si>
+  <si>
+    <t>84,8%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,82%</t>
+  </si>
+  <si>
+    <t>22,88%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>4,03%</t>
+  </si>
+  <si>
+    <t>20,01%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>18,52%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>23,3%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>9,85%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,76%</t>
+  </si>
+  <si>
+    <t>14,54%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>8,45%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>13,71%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,19%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
     <t>10/50</t>
   </si>
   <si>
-    <t>Algunas veces</t>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>76,41%</t>
+  </si>
+  <si>
+    <t>88,68%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>77,1%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>78,84%</t>
+  </si>
+  <si>
+    <t>87,8%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>14,48%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>11,54%</t>
   </si>
   <si>
     <t>2,11%</t>
@@ -98,45 +347,9 @@
     <t>5,38%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
     <t>0,6%</t>
   </si>
   <si>
-    <t>0,0%</t>
-  </si>
-  <si>
     <t>2,93%</t>
   </si>
   <si>
@@ -152,42 +365,6 @@
     <t>0,24%</t>
   </si>
   <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>Nunca</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
     <t>4,64%</t>
   </si>
   <si>
@@ -215,132 +392,189 @@
     <t>7,83%</t>
   </si>
   <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>87,69%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,37%</t>
+  </si>
+  <si>
+    <t>91,59%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>88,49%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>17,79%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>24,51%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,31%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>13,98%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,66%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,1%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>2,96%</t>
   </si>
   <si>
     <t>Capitales</t>
   </si>
   <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>69,37%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>92,47%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,71%</t>
+  </si>
+  <si>
+    <t>87,47%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>19,24%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>13,36%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>13,05%</t>
+  </si>
+  <si>
     <t>3,37%</t>
   </si>
   <si>
@@ -362,33 +596,6 @@
     <t>4,83%</t>
   </si>
   <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
     <t>1,63%</t>
   </si>
   <si>
@@ -413,33 +620,6 @@
     <t>2,9%</t>
   </si>
   <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
     <t>2,34%</t>
   </si>
   <si>
@@ -461,184 +641,58 @@
     <t>7,63%</t>
   </si>
   <si>
-    <t>Menos de 2</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>100,0%</t>
-  </si>
-  <si>
-    <t>81,26%</t>
-  </si>
-  <si>
-    <t>84,49%</t>
-  </si>
-  <si>
-    <t>55,9%</t>
-  </si>
-  <si>
-    <t>90,72%</t>
-  </si>
-  <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
+    <t>80,4%</t>
+  </si>
+  <si>
+    <t>75,97%</t>
+  </si>
+  <si>
+    <t>83,77%</t>
+  </si>
+  <si>
+    <t>85,36%</t>
+  </si>
+  <si>
+    <t>81,67%</t>
+  </si>
+  <si>
+    <t>88,6%</t>
+  </si>
+  <si>
+    <t>82,7%</t>
+  </si>
+  <si>
+    <t>80,1%</t>
+  </si>
+  <si>
+    <t>85,41%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,55%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
   </si>
   <si>
     <t>4,47%</t>
@@ -665,33 +719,6 @@
     <t>5,86%</t>
   </si>
   <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
     <t>0,33%</t>
   </si>
   <si>
@@ -714,33 +741,6 @@
   </si>
   <si>
     <t>2,09%</t>
-  </si>
-  <si>
-    <t>80,4%</t>
-  </si>
-  <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
-  </si>
-  <si>
-    <t>85,36%</t>
-  </si>
-  <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
-  </si>
-  <si>
-    <t>82,7%</t>
-  </si>
-  <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
   </si>
   <si>
     <t>2,2%</t>
@@ -1153,7 +1153,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E5E5557-0BA2-4DB6-B1EB-4CBC2F519B51}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C119CAB-02D1-41FD-8E32-553EF7EBBB5C}">
   <dimension ref="A1:Q39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1271,10 +1271,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="D4" s="7">
-        <v>3119</v>
+        <v>6555</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1286,10 +1286,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I4" s="7">
-        <v>3058</v>
+        <v>8253</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1298,226 +1298,226 @@
         <v>15</v>
       </c>
       <c r="L4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M4" s="7">
+        <v>23</v>
+      </c>
+      <c r="N4" s="7">
+        <v>14807</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="M4" s="7">
-        <v>6</v>
-      </c>
-      <c r="N4" s="7">
-        <v>6177</v>
-      </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="Q4" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
       <c r="B5" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C5" s="7">
+        <v>0</v>
+      </c>
+      <c r="D5" s="7">
+        <v>0</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C5" s="7">
-        <v>18</v>
-      </c>
-      <c r="D5" s="7">
-        <v>13216</v>
-      </c>
-      <c r="E5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="H5" s="7">
+        <v>1</v>
+      </c>
+      <c r="I5" s="7">
+        <v>643</v>
+      </c>
+      <c r="J5" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="K5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="H5" s="7">
-        <v>10</v>
-      </c>
-      <c r="I5" s="7">
-        <v>7065</v>
-      </c>
-      <c r="J5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>1</v>
+      </c>
+      <c r="N5" s="7">
+        <v>643</v>
+      </c>
+      <c r="O5" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="P5" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>25</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>26</v>
-      </c>
-      <c r="M5" s="7">
-        <v>28</v>
-      </c>
-      <c r="N5" s="7">
-        <v>20282</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>27</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D6" s="7">
-        <v>888</v>
+        <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>33</v>
+        <v>21</v>
       </c>
       <c r="H6" s="7">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I6" s="7">
-        <v>1410</v>
+        <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="M6" s="7">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="N6" s="7">
-        <v>2298</v>
+        <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>36</v>
+        <v>19</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>38</v>
+        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C7" s="7">
-        <v>145</v>
+        <v>0</v>
       </c>
       <c r="D7" s="7">
-        <v>123836</v>
+        <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>40</v>
+        <v>19</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>42</v>
+        <v>21</v>
       </c>
       <c r="H7" s="7">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="I7" s="7">
-        <v>86516</v>
+        <v>0</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>45</v>
+        <v>27</v>
       </c>
       <c r="M7" s="7">
-        <v>261</v>
+        <v>0</v>
       </c>
       <c r="N7" s="7">
-        <v>210353</v>
+        <v>0</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>48</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C8" s="7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="D8" s="7">
-        <v>6868</v>
+        <v>0</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>50</v>
+        <v>19</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>51</v>
+        <v>20</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="H8" s="7">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>4189</v>
+        <v>872</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>53</v>
+        <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>54</v>
+        <v>19</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>55</v>
+        <v>32</v>
       </c>
       <c r="M8" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>11057</v>
+        <v>872</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>56</v>
+        <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>57</v>
+        <v>19</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1526,108 +1526,108 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>175</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>147928</v>
+        <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H9" s="7">
-        <v>136</v>
+        <v>16</v>
       </c>
       <c r="I9" s="7">
-        <v>102239</v>
+        <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M9" s="7">
-        <v>311</v>
+        <v>25</v>
       </c>
       <c r="N9" s="7">
-        <v>250167</v>
+        <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>60</v>
+        <v>35</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D10" s="7">
-        <v>4976</v>
+        <v>52009</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="7">
         <v>61</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>62</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>63</v>
-      </c>
-      <c r="H10" s="7">
-        <v>2</v>
-      </c>
       <c r="I10" s="7">
-        <v>1472</v>
+        <v>41957</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>64</v>
+        <v>41</v>
       </c>
       <c r="M10" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="N10" s="7">
-        <v>6448</v>
+        <v>93966</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>65</v>
+        <v>42</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>66</v>
+        <v>43</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>67</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C11" s="7">
         <v>11</v>
@@ -1636,13 +1636,13 @@
         <v>9005</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>68</v>
+        <v>45</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>69</v>
+        <v>46</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>70</v>
+        <v>47</v>
       </c>
       <c r="H11" s="7">
         <v>6</v>
@@ -1651,13 +1651,13 @@
         <v>5203</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>71</v>
+        <v>48</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>72</v>
+        <v>49</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>73</v>
+        <v>50</v>
       </c>
       <c r="M11" s="7">
         <v>17</v>
@@ -1666,121 +1666,121 @@
         <v>14209</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>74</v>
+        <v>51</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>75</v>
+        <v>52</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>76</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D12" s="7">
-        <v>539</v>
+        <v>4976</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>77</v>
+        <v>54</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>32</v>
+        <v>55</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>78</v>
+        <v>56</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
       </c>
       <c r="I12" s="7">
-        <v>1363</v>
+        <v>1472</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>79</v>
+        <v>57</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>80</v>
+        <v>58</v>
       </c>
       <c r="M12" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N12" s="7">
-        <v>1903</v>
+        <v>6448</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>32</v>
+        <v>60</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>82</v>
+        <v>61</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C13" s="7">
-        <v>60</v>
+        <v>1</v>
       </c>
       <c r="D13" s="7">
-        <v>52009</v>
+        <v>539</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>83</v>
+        <v>62</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>85</v>
+        <v>63</v>
       </c>
       <c r="H13" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>41957</v>
+        <v>1363</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>86</v>
+        <v>64</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>87</v>
+        <v>19</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>88</v>
+        <v>65</v>
       </c>
       <c r="M13" s="7">
-        <v>121</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>93966</v>
+        <v>1903</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>89</v>
+        <v>66</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>90</v>
+        <v>19</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>91</v>
+        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C14" s="7">
         <v>3</v>
@@ -1789,13 +1789,13 @@
         <v>2748</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>92</v>
+        <v>68</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>93</v>
+        <v>69</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>94</v>
+        <v>70</v>
       </c>
       <c r="H14" s="7">
         <v>2</v>
@@ -1804,13 +1804,13 @@
         <v>1603</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>95</v>
+        <v>71</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="M14" s="7">
         <v>5</v>
@@ -1819,13 +1819,13 @@
         <v>4351</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>97</v>
+        <v>73</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>98</v>
+        <v>74</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1840,13 +1840,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1855,13 +1855,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1870,270 +1870,270 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>100</v>
+        <v>76</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>4</v>
+        <v>145</v>
       </c>
       <c r="D16" s="7">
-        <v>3138</v>
+        <v>123836</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>101</v>
+        <v>77</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>102</v>
+        <v>78</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>103</v>
+        <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>2</v>
+        <v>116</v>
       </c>
       <c r="I16" s="7">
-        <v>1406</v>
+        <v>86516</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>104</v>
+        <v>80</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>32</v>
+        <v>81</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>6</v>
+        <v>261</v>
       </c>
       <c r="N16" s="7">
-        <v>4544</v>
+        <v>210353</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>36</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>107</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="D17" s="7">
-        <v>10855</v>
+        <v>13216</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>108</v>
+        <v>31</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I17" s="7">
-        <v>6820</v>
+        <v>7065</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>112</v>
+        <v>89</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="M17" s="7">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="N17" s="7">
-        <v>17676</v>
+        <v>20282</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>114</v>
+        <v>91</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
       </c>
       <c r="D18" s="7">
-        <v>1512</v>
+        <v>3119</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
       <c r="H18" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="I18" s="7">
-        <v>568</v>
+        <v>3058</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>32</v>
+        <v>98</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>121</v>
+        <v>99</v>
       </c>
       <c r="M18" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N18" s="7">
-        <v>2080</v>
+        <v>6177</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>122</v>
+        <v>100</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>123</v>
+        <v>101</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>124</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C19" s="7">
-        <v>89</v>
+        <v>1</v>
       </c>
       <c r="D19" s="7">
-        <v>72431</v>
+        <v>888</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>125</v>
+        <v>103</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>126</v>
+        <v>19</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>127</v>
+        <v>104</v>
       </c>
       <c r="H19" s="7">
-        <v>115</v>
+        <v>2</v>
       </c>
       <c r="I19" s="7">
-        <v>86817</v>
+        <v>1410</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>128</v>
+        <v>105</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>129</v>
+        <v>19</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>130</v>
+        <v>106</v>
       </c>
       <c r="M19" s="7">
-        <v>204</v>
+        <v>3</v>
       </c>
       <c r="N19" s="7">
-        <v>159248</v>
+        <v>2298</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>131</v>
+        <v>107</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>132</v>
+        <v>108</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>133</v>
+        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C20" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D20" s="7">
-        <v>5050</v>
+        <v>6868</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>28</v>
+        <v>109</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>134</v>
+        <v>110</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>135</v>
+        <v>111</v>
       </c>
       <c r="H20" s="7">
         <v>5</v>
       </c>
       <c r="I20" s="7">
-        <v>3579</v>
+        <v>4189</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>136</v>
+        <v>112</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>54</v>
+        <v>113</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>137</v>
+        <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="N20" s="7">
-        <v>8629</v>
+        <v>11057</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>138</v>
+        <v>115</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>139</v>
+        <v>116</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>140</v>
+        <v>117</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2142,306 +2142,306 @@
         <v>3</v>
       </c>
       <c r="C21" s="7">
-        <v>117</v>
+        <v>175</v>
       </c>
       <c r="D21" s="7">
-        <v>92986</v>
+        <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H21" s="7">
-        <v>131</v>
+        <v>136</v>
       </c>
       <c r="I21" s="7">
-        <v>99190</v>
+        <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M21" s="7">
-        <v>248</v>
+        <v>311</v>
       </c>
       <c r="N21" s="7">
-        <v>192176</v>
+        <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>141</v>
+        <v>118</v>
       </c>
       <c r="B22" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D22" s="7">
-        <v>0</v>
+        <v>81840</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>32</v>
+        <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>142</v>
+        <v>120</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>143</v>
+        <v>121</v>
       </c>
       <c r="H22" s="7">
-        <v>0</v>
+        <v>100</v>
       </c>
       <c r="I22" s="7">
-        <v>0</v>
+        <v>84125</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>32</v>
+        <v>122</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>142</v>
+        <v>123</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>144</v>
+        <v>124</v>
       </c>
       <c r="M22" s="7">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="N22" s="7">
-        <v>0</v>
+        <v>165965</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>32</v>
+        <v>125</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>142</v>
+        <v>126</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>145</v>
+        <v>127</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="7">
+        <v>13</v>
+      </c>
+      <c r="D23" s="7">
+        <v>11319</v>
+      </c>
+      <c r="E23" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>130</v>
+      </c>
+      <c r="H23" s="7">
+        <v>7</v>
+      </c>
+      <c r="I23" s="7">
+        <v>4507</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K23" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L23" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="M23" s="7">
         <v>20</v>
       </c>
-      <c r="C23" s="7">
-        <v>0</v>
-      </c>
-      <c r="D23" s="7">
-        <v>0</v>
-      </c>
-      <c r="E23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="F23" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="G23" s="7" t="s">
-        <v>143</v>
-      </c>
-      <c r="H23" s="7">
-        <v>1</v>
-      </c>
-      <c r="I23" s="7">
-        <v>643</v>
-      </c>
-      <c r="J23" s="7" t="s">
-        <v>146</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>147</v>
-      </c>
-      <c r="M23" s="7">
-        <v>1</v>
-      </c>
       <c r="N23" s="7">
-        <v>643</v>
+        <v>15825</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>148</v>
+        <v>134</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>32</v>
+        <v>135</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C24" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D24" s="7">
-        <v>0</v>
+        <v>7468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="H24" s="7">
+        <v>7</v>
+      </c>
+      <c r="I24" s="7">
+        <v>5039</v>
+      </c>
+      <c r="J24" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K24" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L24" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="M24" s="7">
+        <v>12</v>
+      </c>
+      <c r="N24" s="7">
+        <v>12507</v>
+      </c>
+      <c r="O24" s="7" t="s">
         <v>142</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="P24" s="7" t="s">
         <v>143</v>
       </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L24" s="7" t="s">
+      <c r="Q24" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C25" s="7">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D25" s="7">
-        <v>6555</v>
+        <v>931</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>145</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" s="7">
+        <v>3</v>
+      </c>
+      <c r="I25" s="7">
+        <v>2444</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="M25" s="7">
+        <v>4</v>
+      </c>
+      <c r="N25" s="7">
+        <v>3375</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>150</v>
       </c>
-      <c r="F25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="G25" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>8253</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="M25" s="7">
-        <v>23</v>
-      </c>
-      <c r="N25" s="7">
-        <v>14807</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>154</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C26" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D26" s="7">
-        <v>0</v>
+        <v>430</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>32</v>
+        <v>153</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>142</v>
+        <v>19</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>143</v>
+        <v>154</v>
       </c>
       <c r="H26" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I26" s="7">
-        <v>872</v>
+        <v>1528</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>21</v>
+        <v>155</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>32</v>
+        <v>19</v>
       </c>
       <c r="L26" s="7" t="s">
         <v>156</v>
       </c>
       <c r="M26" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N26" s="7">
-        <v>872</v>
+        <v>1957</v>
       </c>
       <c r="O26" s="7" t="s">
         <v>157</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>32</v>
+        <v>158</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2450,246 +2450,246 @@
         <v>3</v>
       </c>
       <c r="C27" s="7">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="D27" s="7">
-        <v>6555</v>
+        <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H27" s="7">
-        <v>16</v>
+        <v>119</v>
       </c>
       <c r="I27" s="7">
-        <v>9768</v>
+        <v>97643</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M27" s="7">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="N27" s="7">
-        <v>16322</v>
+        <v>199630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="D28" s="7">
-        <v>7468</v>
+        <v>72431</v>
       </c>
       <c r="E28" s="7" t="s">
-        <v>145</v>
+        <v>161</v>
       </c>
       <c r="F28" s="7" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="G28" s="7" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
       <c r="H28" s="7">
-        <v>7</v>
+        <v>115</v>
       </c>
       <c r="I28" s="7">
-        <v>5039</v>
+        <v>86817</v>
       </c>
       <c r="J28" s="7" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="K28" s="7" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
       <c r="L28" s="7" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="M28" s="7">
-        <v>12</v>
+        <v>204</v>
       </c>
       <c r="N28" s="7">
-        <v>12507</v>
+        <v>159248</v>
       </c>
       <c r="O28" s="7" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="P28" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="B29" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D29" s="7">
-        <v>11319</v>
+        <v>10855</v>
       </c>
       <c r="E29" s="7" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="F29" s="7" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G29" s="7" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="H29" s="7">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="I29" s="7">
-        <v>4507</v>
+        <v>6820</v>
       </c>
       <c r="J29" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="K29" s="7" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="L29" s="7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="M29" s="7">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="N29" s="7">
-        <v>15825</v>
+        <v>17676</v>
       </c>
       <c r="O29" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="P29" s="7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q29" s="7" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C30" s="7">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D30" s="7">
-        <v>931</v>
+        <v>3138</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>32</v>
+        <v>180</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="H30" s="7">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I30" s="7">
-        <v>2444</v>
+        <v>1406</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>180</v>
+        <v>19</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="M30" s="7">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="N30" s="7">
-        <v>3375</v>
+        <v>4544</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>183</v>
+        <v>107</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C31" s="7">
-        <v>90</v>
+        <v>3</v>
       </c>
       <c r="D31" s="7">
-        <v>81840</v>
+        <v>1512</v>
       </c>
       <c r="E31" s="7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F31" s="7" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="G31" s="7" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="H31" s="7">
-        <v>100</v>
+        <v>1</v>
       </c>
       <c r="I31" s="7">
-        <v>84125</v>
+        <v>568</v>
       </c>
       <c r="J31" s="7" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="K31" s="7" t="s">
-        <v>189</v>
+        <v>19</v>
       </c>
       <c r="L31" s="7" t="s">
         <v>190</v>
       </c>
       <c r="M31" s="7">
-        <v>190</v>
+        <v>4</v>
       </c>
       <c r="N31" s="7">
-        <v>165965</v>
+        <v>2080</v>
       </c>
       <c r="O31" s="7" t="s">
         <v>191</v>
@@ -2704,43 +2704,43 @@
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C32" s="7">
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="D32" s="7">
-        <v>430</v>
+        <v>5050</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F32" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>32</v>
       </c>
       <c r="G32" s="7" t="s">
         <v>195</v>
       </c>
       <c r="H32" s="7">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="I32" s="7">
-        <v>1528</v>
+        <v>3579</v>
       </c>
       <c r="J32" s="7" t="s">
         <v>196</v>
       </c>
       <c r="K32" s="7" t="s">
-        <v>32</v>
+        <v>113</v>
       </c>
       <c r="L32" s="7" t="s">
         <v>197</v>
       </c>
       <c r="M32" s="7">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="N32" s="7">
-        <v>1957</v>
+        <v>8629</v>
       </c>
       <c r="O32" s="7" t="s">
         <v>198</v>
@@ -2758,49 +2758,49 @@
         <v>3</v>
       </c>
       <c r="C33" s="7">
-        <v>110</v>
+        <v>117</v>
       </c>
       <c r="D33" s="7">
-        <v>101987</v>
+        <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H33" s="7">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="I33" s="7">
-        <v>97643</v>
+        <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M33" s="7">
-        <v>229</v>
+        <v>248</v>
       </c>
       <c r="N33" s="7">
-        <v>199630</v>
+        <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,10 +2811,10 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>15</v>
+        <v>393</v>
       </c>
       <c r="D34" s="7">
-        <v>18701</v>
+        <v>336671</v>
       </c>
       <c r="E34" s="7" t="s">
         <v>201</v>
@@ -2826,10 +2826,10 @@
         <v>203</v>
       </c>
       <c r="H34" s="7">
-        <v>14</v>
+        <v>406</v>
       </c>
       <c r="I34" s="7">
-        <v>10976</v>
+        <v>307668</v>
       </c>
       <c r="J34" s="7" t="s">
         <v>204</v>
@@ -2841,25 +2841,25 @@
         <v>206</v>
       </c>
       <c r="M34" s="7">
-        <v>29</v>
+        <v>799</v>
       </c>
       <c r="N34" s="7">
-        <v>29677</v>
+        <v>644339</v>
       </c>
       <c r="O34" s="7" t="s">
         <v>207</v>
       </c>
       <c r="P34" s="7" t="s">
-        <v>160</v>
+        <v>208</v>
       </c>
       <c r="Q34" s="7" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="B35" s="5" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C35" s="7">
         <v>56</v>
@@ -2868,13 +2868,13 @@
         <v>44396</v>
       </c>
       <c r="E35" s="7" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H35" s="7">
         <v>32</v>
@@ -2883,13 +2883,13 @@
         <v>24239</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="M35" s="7">
         <v>88</v>
@@ -2898,79 +2898,79 @@
         <v>68635</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C36" s="7">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="D36" s="7">
-        <v>3870</v>
+        <v>18701</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>36</v>
+        <v>219</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H36" s="7">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="I36" s="7">
-        <v>5786</v>
+        <v>10976</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="M36" s="7">
-        <v>14</v>
+        <v>29</v>
       </c>
       <c r="N36" s="7">
-        <v>9655</v>
+        <v>29677</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>224</v>
+        <v>137</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>39</v>
+        <v>29</v>
       </c>
       <c r="C37" s="7">
-        <v>393</v>
+        <v>6</v>
       </c>
       <c r="D37" s="7">
-        <v>336671</v>
+        <v>3870</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>226</v>
+        <v>107</v>
       </c>
       <c r="F37" s="7" t="s">
         <v>227</v>
@@ -2979,10 +2979,10 @@
         <v>228</v>
       </c>
       <c r="H37" s="7">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="I37" s="7">
-        <v>307668</v>
+        <v>5786</v>
       </c>
       <c r="J37" s="7" t="s">
         <v>229</v>
@@ -2994,10 +2994,10 @@
         <v>231</v>
       </c>
       <c r="M37" s="7">
-        <v>799</v>
+        <v>14</v>
       </c>
       <c r="N37" s="7">
-        <v>644339</v>
+        <v>9655</v>
       </c>
       <c r="O37" s="7" t="s">
         <v>232</v>
@@ -3012,7 +3012,7 @@
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>49</v>
+        <v>30</v>
       </c>
       <c r="C38" s="7">
         <v>19</v>
@@ -3021,7 +3021,7 @@
         <v>15097</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>136</v>
+        <v>196</v>
       </c>
       <c r="F38" s="7" t="s">
         <v>235</v>
@@ -3054,7 +3054,7 @@
         <v>240</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="Q38" s="7" t="s">
         <v>241</v>
@@ -3072,13 +3072,13 @@
         <v>418734</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -3087,13 +3087,13 @@
         <v>360438</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="M39" s="7">
         <v>964</v>
@@ -3102,13 +3102,13 @@
         <v>779172</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>59</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{695B3769-446E-4CA4-B696-8B4BA80B6A21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F75210B-4F7A-4D3B-BC0F-A48CE0F69A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{6810DAFC-52E3-4AF8-970A-E21BFC0F4788}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C743C56-4389-45C9-839B-662349922FC4}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,9 +36,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="242">
-  <si>
-    <t>Menores según frecuencia de tener problema spara dormir en 2023 (Tasa respuesta: 50,21%)</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
+  <si>
+    <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
   <si>
     <t>Hombre</t>
@@ -68,6 +68,57 @@
     <t>Menos de 2</t>
   </si>
   <si>
+    <t>Siempre</t>
+  </si>
+  <si>
+    <t>0,0%</t>
+  </si>
+  <si>
+    <t>0%</t>
+  </si>
+  <si>
+    <t>18,74%</t>
+  </si>
+  <si>
+    <t>8,93%</t>
+  </si>
+  <si>
+    <t>34,46%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>21,31%</t>
+  </si>
+  <si>
+    <t>Casi siempre</t>
+  </si>
+  <si>
+    <t>11,15%</t>
+  </si>
+  <si>
+    <t>7,32%</t>
+  </si>
+  <si>
+    <t>Algunas veces</t>
+  </si>
+  <si>
+    <t>Casi nunca</t>
+  </si>
+  <si>
+    <t>6,58%</t>
+  </si>
+  <si>
+    <t>33,85%</t>
+  </si>
+  <si>
+    <t>3,94%</t>
+  </si>
+  <si>
+    <t>17,46%</t>
+  </si>
+  <si>
     <t>Nunca</t>
   </si>
   <si>
@@ -92,676 +143,616 @@
     <t>71,21%</t>
   </si>
   <si>
-    <t>Casi nunca</t>
-  </si>
-  <si>
-    <t>0,0%</t>
-  </si>
-  <si>
-    <t>0%</t>
-  </si>
-  <si>
-    <t>18,74%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>33,85%</t>
-  </si>
-  <si>
-    <t>3,94%</t>
-  </si>
-  <si>
-    <t>17,46%</t>
-  </si>
-  <si>
-    <t>Algunas veces</t>
-  </si>
-  <si>
-    <t>11,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>Casi siempre</t>
-  </si>
-  <si>
-    <t>Siempre</t>
-  </si>
-  <si>
-    <t>8,93%</t>
-  </si>
-  <si>
-    <t>34,46%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>21,31%</t>
-  </si>
-  <si>
     <t>2/10</t>
   </si>
   <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>12,65%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>3,84%</t>
+  </si>
+  <si>
+    <t>2,64%</t>
+  </si>
+  <si>
+    <t>9,83%</t>
+  </si>
+  <si>
+    <t>1,57%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>21,18%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>13,33%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,58%</t>
+  </si>
+  <si>
+    <t>13,84%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>22,86%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,92%</t>
+  </si>
+  <si>
+    <t>20,14%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>18,79%</t>
+  </si>
+  <si>
     <t>75,07%</t>
   </si>
   <si>
-    <t>60,53%</t>
-  </si>
-  <si>
-    <t>85,24%</t>
+    <t>61,01%</t>
+  </si>
+  <si>
+    <t>85,22%</t>
   </si>
   <si>
     <t>81,31%</t>
   </si>
   <si>
-    <t>70,55%</t>
-  </si>
-  <si>
-    <t>89,62%</t>
+    <t>69,51%</t>
+  </si>
+  <si>
+    <t>90,56%</t>
   </si>
   <si>
     <t>77,74%</t>
   </si>
   <si>
-    <t>69,12%</t>
-  </si>
-  <si>
-    <t>84,8%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,82%</t>
-  </si>
-  <si>
-    <t>22,88%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>4,03%</t>
-  </si>
-  <si>
-    <t>20,01%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>18,52%</t>
-  </si>
-  <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>23,3%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>9,85%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>14,54%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
-  </si>
-  <si>
-    <t>8,45%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>13,71%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
+    <t>68,73%</t>
+  </si>
+  <si>
+    <t>84,56%</t>
+  </si>
+  <si>
+    <t>10/50</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>2,55%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,68%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>4,47%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>2,4%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>5,74%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>7,97%</t>
+  </si>
+  <si>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>13,68%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,24%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>77,34%</t>
+  </si>
+  <si>
+    <t>89,32%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>77,7%</t>
+  </si>
+  <si>
+    <t>90,62%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,07%</t>
+  </si>
+  <si>
+    <t>88,18%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,22%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,52%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>9,94%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>13,06%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>18,04%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>10,26%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,96%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>67,27%</t>
+  </si>
+  <si>
+    <t>87,86%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>79,45%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>76,37%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>11,05%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
   </si>
   <si>
     <t>1,19%</t>
   </si>
   <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>76,41%</t>
-  </si>
-  <si>
-    <t>88,68%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>77,1%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>78,84%</t>
-  </si>
-  <si>
-    <t>87,8%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>14,48%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>11,54%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>6,2%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,72%</t>
-  </si>
-  <si>
-    <t>8,04%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>5,38%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>4,48%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,06%</t>
-  </si>
-  <si>
-    <t>9,63%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>7,83%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>68,25%</t>
-  </si>
-  <si>
-    <t>87,69%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>78,37%</t>
-  </si>
-  <si>
-    <t>91,59%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>75,94%</t>
-  </si>
-  <si>
-    <t>88,49%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>17,79%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,79%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>24,51%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>2,31%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>13,98%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>5,5%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,66%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,1%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>2,96%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,38%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,97%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,95%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>18,58%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>13,02%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>13,54%</t>
   </si>
   <si>
     <t>77,89%</t>
   </si>
   <si>
-    <t>69,37%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
+    <t>69,34%</t>
+  </si>
+  <si>
+    <t>85,1%</t>
   </si>
   <si>
     <t>87,53%</t>
   </si>
   <si>
-    <t>80,6%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
+    <t>80,54%</t>
+  </si>
+  <si>
+    <t>92,42%</t>
   </si>
   <si>
     <t>82,87%</t>
   </si>
   <si>
-    <t>77,71%</t>
-  </si>
-  <si>
-    <t>87,47%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>19,24%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>13,36%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>13,05%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>8,7%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>4,83%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>4,72%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>3,53%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,3%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>11,43%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
+    <t>77,51%</t>
+  </si>
+  <si>
+    <t>87,02%</t>
+  </si>
+  <si>
+    <t>6,08%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>4,87%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,7%</t>
+  </si>
+  <si>
+    <t>2,23%</t>
   </si>
   <si>
     <t>2,32%</t>
   </si>
   <si>
-    <t>7,63%</t>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>3,05%</t>
+  </si>
+  <si>
+    <t>4,92%</t>
+  </si>
+  <si>
+    <t>3,81%</t>
+  </si>
+  <si>
+    <t>2,58%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>10,6%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>6,72%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>9,35%</t>
+  </si>
+  <si>
+    <t>8,81%</t>
+  </si>
+  <si>
+    <t>7,12%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>75,97%</t>
-  </si>
-  <si>
-    <t>83,77%</t>
+    <t>76,17%</t>
+  </si>
+  <si>
+    <t>84,19%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>81,67%</t>
-  </si>
-  <si>
-    <t>88,6%</t>
+    <t>82,01%</t>
+  </si>
+  <si>
+    <t>88,54%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>80,1%</t>
-  </si>
-  <si>
-    <t>85,41%</t>
-  </si>
-  <si>
-    <t>10,6%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>6,72%</t>
-  </si>
-  <si>
-    <t>4,55%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>8,81%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>4,47%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>7,58%</t>
-  </si>
-  <si>
-    <t>3,05%</t>
-  </si>
-  <si>
-    <t>1,82%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>3,81%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,2%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,09%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,84%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,98%</t>
+    <t>79,74%</t>
+  </si>
+  <si>
+    <t>85,11%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -772,7 +763,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -868,39 +859,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -952,7 +943,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1063,13 +1054,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -1078,6 +1062,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1142,19 +1133,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C119CAB-02D1-41FD-8E32-553EF7EBBB5C}">
-  <dimension ref="A1:Q39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845523BE-4713-4CF6-826A-8535C7F2F6E2}">
+  <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1271,10 +1282,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="D4" s="7">
-        <v>6555</v>
+        <v>0</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1286,34 +1297,34 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>8253</v>
+        <v>872</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="L4" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="M4" s="7">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>14807</v>
+        <v>872</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>16</v>
       </c>
       <c r="P4" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>17</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -1328,49 +1339,49 @@
         <v>0</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="H5" s="7">
+        <v>0</v>
+      </c>
+      <c r="I5" s="7">
+        <v>0</v>
+      </c>
+      <c r="J5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="M5" s="7">
+        <v>0</v>
+      </c>
+      <c r="N5" s="7">
+        <v>0</v>
+      </c>
+      <c r="O5" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="7">
-        <v>1</v>
-      </c>
-      <c r="I5" s="7">
-        <v>643</v>
-      </c>
-      <c r="J5" s="7" t="s">
-        <v>22</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>23</v>
-      </c>
-      <c r="M5" s="7">
-        <v>1</v>
-      </c>
-      <c r="N5" s="7">
-        <v>643</v>
-      </c>
-      <c r="O5" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C6" s="7">
         <v>0</v>
@@ -1379,13 +1390,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H6" s="7">
         <v>0</v>
@@ -1394,13 +1405,13 @@
         <v>0</v>
       </c>
       <c r="J6" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L6" s="7" t="s">
         <v>19</v>
-      </c>
-      <c r="K6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="M6" s="7">
         <v>0</v>
@@ -1409,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="P6" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="Q6" s="7" t="s">
         <v>20</v>
-      </c>
-      <c r="Q6" s="7" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="B7" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C7" s="7">
         <v>0</v>
@@ -1430,94 +1441,94 @@
         <v>0</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="H7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I7" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="M7" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N7" s="7">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>19</v>
+        <v>25</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>11</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>6555</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>21</v>
+        <v>30</v>
       </c>
       <c r="H8" s="7">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="I8" s="7">
-        <v>872</v>
+        <v>8253</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>31</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="M8" s="7">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="N8" s="7">
-        <v>872</v>
+        <v>14807</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>33</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1532,13 +1543,13 @@
         <v>6555</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H9" s="7">
         <v>16</v>
@@ -1547,13 +1558,13 @@
         <v>9768</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M9" s="7">
         <v>25</v>
@@ -1562,13 +1573,13 @@
         <v>16322</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -1579,10 +1590,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>60</v>
+        <v>3</v>
       </c>
       <c r="D10" s="7">
-        <v>52009</v>
+        <v>2748</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>36</v>
@@ -1594,34 +1605,34 @@
         <v>38</v>
       </c>
       <c r="H10" s="7">
-        <v>61</v>
+        <v>2</v>
       </c>
       <c r="I10" s="7">
-        <v>41957</v>
+        <v>1603</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>39</v>
       </c>
       <c r="K10" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>5</v>
+      </c>
+      <c r="N10" s="7">
+        <v>4351</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="M10" s="7">
-        <v>121</v>
-      </c>
-      <c r="N10" s="7">
-        <v>93966</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>43</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1630,55 +1641,55 @@
         <v>18</v>
       </c>
       <c r="C11" s="7">
+        <v>1</v>
+      </c>
+      <c r="D11" s="7">
+        <v>539</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="D11" s="7">
-        <v>9005</v>
-      </c>
-      <c r="E11" s="7" t="s">
+      <c r="G11" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="H11" s="7">
+        <v>2</v>
+      </c>
+      <c r="I11" s="7">
+        <v>1363</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="K11" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>3</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1903</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="H11" s="7">
-        <v>6</v>
-      </c>
-      <c r="I11" s="7">
-        <v>5203</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>48</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>49</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>50</v>
-      </c>
-      <c r="M11" s="7">
-        <v>17</v>
-      </c>
-      <c r="N11" s="7">
-        <v>14209</v>
-      </c>
-      <c r="O11" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C12" s="7">
         <v>3</v>
@@ -1687,13 +1698,13 @@
         <v>4976</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1702,13 +1713,13 @@
         <v>1472</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1717,106 +1728,106 @@
         <v>6448</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="D13" s="7">
-        <v>539</v>
+        <v>9005</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H13" s="7">
+        <v>6</v>
+      </c>
+      <c r="I13" s="7">
+        <v>5203</v>
+      </c>
+      <c r="J13" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="H13" s="7">
-        <v>2</v>
-      </c>
-      <c r="I13" s="7">
-        <v>1363</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>17</v>
+      </c>
+      <c r="N13" s="7">
+        <v>14209</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="K13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M13" s="7">
-        <v>3</v>
-      </c>
-      <c r="N13" s="7">
-        <v>1903</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C14" s="7">
-        <v>3</v>
+        <v>60</v>
       </c>
       <c r="D14" s="7">
-        <v>2748</v>
+        <v>52009</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>67</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>68</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>61</v>
+      </c>
+      <c r="I14" s="7">
+        <v>41957</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="H14" s="7">
-        <v>2</v>
-      </c>
-      <c r="I14" s="7">
-        <v>1603</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>19</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>72</v>
       </c>
       <c r="M14" s="7">
-        <v>5</v>
+        <v>121</v>
       </c>
       <c r="N14" s="7">
-        <v>4351</v>
+        <v>93966</v>
       </c>
       <c r="O14" s="7" t="s">
         <v>73</v>
@@ -1840,13 +1851,13 @@
         <v>69278</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H15" s="7">
         <v>73</v>
@@ -1855,13 +1866,13 @@
         <v>51598</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M15" s="7">
         <v>151</v>
@@ -1870,13 +1881,13 @@
         <v>120876</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
@@ -1887,10 +1898,10 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>145</v>
+        <v>8</v>
       </c>
       <c r="D16" s="7">
-        <v>123836</v>
+        <v>6868</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>77</v>
@@ -1902,10 +1913,10 @@
         <v>79</v>
       </c>
       <c r="H16" s="7">
-        <v>116</v>
+        <v>5</v>
       </c>
       <c r="I16" s="7">
-        <v>86516</v>
+        <v>4189</v>
       </c>
       <c r="J16" s="7" t="s">
         <v>80</v>
@@ -1917,19 +1928,19 @@
         <v>82</v>
       </c>
       <c r="M16" s="7">
-        <v>261</v>
+        <v>13</v>
       </c>
       <c r="N16" s="7">
-        <v>210353</v>
+        <v>11057</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>84</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1938,55 +1949,55 @@
         <v>18</v>
       </c>
       <c r="C17" s="7">
-        <v>18</v>
+        <v>1</v>
       </c>
       <c r="D17" s="7">
-        <v>13216</v>
+        <v>888</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>31</v>
+        <v>85</v>
       </c>
       <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="H17" s="7">
+        <v>2</v>
+      </c>
+      <c r="I17" s="7">
+        <v>1410</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>87</v>
       </c>
-      <c r="H17" s="7">
-        <v>10</v>
-      </c>
-      <c r="I17" s="7">
-        <v>7065</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="K17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>3</v>
+      </c>
+      <c r="N17" s="7">
+        <v>2298</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="L17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="M17" s="7">
-        <v>28</v>
-      </c>
-      <c r="N17" s="7">
-        <v>20282</v>
-      </c>
-      <c r="O17" s="7" t="s">
+      <c r="Q17" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C18" s="7">
         <v>3</v>
@@ -1995,13 +2006,13 @@
         <v>3119</v>
       </c>
       <c r="E18" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>96</v>
       </c>
       <c r="H18" s="7">
         <v>3</v>
@@ -2010,13 +2021,13 @@
         <v>3058</v>
       </c>
       <c r="J18" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="L18" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="K18" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="L18" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="M18" s="7">
         <v>6</v>
@@ -2025,76 +2036,76 @@
         <v>6177</v>
       </c>
       <c r="O18" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="Q18" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="P18" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="Q18" s="7" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C19" s="7">
-        <v>1</v>
+        <v>18</v>
       </c>
       <c r="D19" s="7">
-        <v>888</v>
+        <v>13216</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="G19" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="H19" s="7">
+        <v>10</v>
+      </c>
+      <c r="I19" s="7">
+        <v>7065</v>
+      </c>
+      <c r="J19" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G19" s="7" t="s">
+      <c r="K19" s="7" t="s">
         <v>104</v>
       </c>
-      <c r="H19" s="7">
-        <v>2</v>
-      </c>
-      <c r="I19" s="7">
-        <v>1410</v>
-      </c>
-      <c r="J19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>105</v>
       </c>
-      <c r="K19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L19" s="7" t="s">
+      <c r="M19" s="7">
+        <v>28</v>
+      </c>
+      <c r="N19" s="7">
+        <v>20282</v>
+      </c>
+      <c r="O19" s="7" t="s">
         <v>106</v>
       </c>
-      <c r="M19" s="7">
-        <v>3</v>
-      </c>
-      <c r="N19" s="7">
-        <v>2298</v>
-      </c>
-      <c r="O19" s="7" t="s">
+      <c r="P19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="P19" s="7" t="s">
+      <c r="Q19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C20" s="7">
-        <v>8</v>
+        <v>145</v>
       </c>
       <c r="D20" s="7">
-        <v>6868</v>
+        <v>123836</v>
       </c>
       <c r="E20" s="7" t="s">
         <v>109</v>
@@ -2106,10 +2117,10 @@
         <v>111</v>
       </c>
       <c r="H20" s="7">
-        <v>5</v>
+        <v>116</v>
       </c>
       <c r="I20" s="7">
-        <v>4189</v>
+        <v>86516</v>
       </c>
       <c r="J20" s="7" t="s">
         <v>112</v>
@@ -2121,10 +2132,10 @@
         <v>114</v>
       </c>
       <c r="M20" s="7">
-        <v>13</v>
+        <v>261</v>
       </c>
       <c r="N20" s="7">
-        <v>11057</v>
+        <v>210353</v>
       </c>
       <c r="O20" s="7" t="s">
         <v>115</v>
@@ -2148,13 +2159,13 @@
         <v>147928</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H21" s="7">
         <v>136</v>
@@ -2163,13 +2174,13 @@
         <v>102239</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M21" s="7">
         <v>311</v>
@@ -2178,13 +2189,13 @@
         <v>250167</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2195,49 +2206,49 @@
         <v>10</v>
       </c>
       <c r="C22" s="7">
-        <v>90</v>
+        <v>1</v>
       </c>
       <c r="D22" s="7">
-        <v>81840</v>
+        <v>430</v>
       </c>
       <c r="E22" s="7" t="s">
         <v>119</v>
       </c>
       <c r="F22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G22" s="7" t="s">
         <v>120</v>
       </c>
-      <c r="G22" s="7" t="s">
+      <c r="H22" s="7">
+        <v>2</v>
+      </c>
+      <c r="I22" s="7">
+        <v>1528</v>
+      </c>
+      <c r="J22" s="7" t="s">
         <v>121</v>
       </c>
-      <c r="H22" s="7">
-        <v>100</v>
-      </c>
-      <c r="I22" s="7">
-        <v>84125</v>
-      </c>
-      <c r="J22" s="7" t="s">
+      <c r="K22" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L22" s="7" t="s">
         <v>122</v>
       </c>
-      <c r="K22" s="7" t="s">
+      <c r="M22" s="7">
+        <v>3</v>
+      </c>
+      <c r="N22" s="7">
+        <v>1957</v>
+      </c>
+      <c r="O22" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="L22" s="7" t="s">
+      <c r="P22" s="7" t="s">
         <v>124</v>
       </c>
-      <c r="M22" s="7">
-        <v>190</v>
-      </c>
-      <c r="N22" s="7">
-        <v>165965</v>
-      </c>
-      <c r="O22" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="P22" s="7" t="s">
-        <v>126</v>
-      </c>
       <c r="Q22" s="7" t="s">
-        <v>127</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2246,55 +2257,55 @@
         <v>18</v>
       </c>
       <c r="C23" s="7">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="D23" s="7">
-        <v>11319</v>
+        <v>931</v>
       </c>
       <c r="E23" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="F23" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G23" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="H23" s="7">
+        <v>3</v>
+      </c>
+      <c r="I23" s="7">
+        <v>2444</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>127</v>
+      </c>
+      <c r="K23" s="7" t="s">
         <v>128</v>
       </c>
-      <c r="F23" s="7" t="s">
+      <c r="L23" s="7" t="s">
         <v>129</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="M23" s="7">
+        <v>4</v>
+      </c>
+      <c r="N23" s="7">
+        <v>3375</v>
+      </c>
+      <c r="O23" s="7" t="s">
         <v>130</v>
       </c>
-      <c r="H23" s="7">
-        <v>7</v>
-      </c>
-      <c r="I23" s="7">
-        <v>4507</v>
-      </c>
-      <c r="J23" s="7" t="s">
+      <c r="P23" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q23" s="7" t="s">
         <v>131</v>
-      </c>
-      <c r="K23" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="L23" s="7" t="s">
-        <v>133</v>
-      </c>
-      <c r="M23" s="7">
-        <v>20</v>
-      </c>
-      <c r="N23" s="7">
-        <v>15825</v>
-      </c>
-      <c r="O23" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="P23" s="7" t="s">
-        <v>135</v>
-      </c>
-      <c r="Q23" s="7" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C24" s="7">
         <v>5</v>
@@ -2303,13 +2314,13 @@
         <v>7468</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>28</v>
+        <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -2318,13 +2329,13 @@
         <v>5039</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2333,115 +2344,115 @@
         <v>12507</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>143</v>
+        <v>39</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C25" s="7">
-        <v>1</v>
+        <v>13</v>
       </c>
       <c r="D25" s="7">
-        <v>931</v>
+        <v>11319</v>
       </c>
       <c r="E25" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="F25" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="G25" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="H25" s="7">
+        <v>7</v>
+      </c>
+      <c r="I25" s="7">
+        <v>4507</v>
+      </c>
+      <c r="J25" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="K25" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="L25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="M25" s="7">
+        <v>20</v>
+      </c>
+      <c r="N25" s="7">
+        <v>15825</v>
+      </c>
+      <c r="O25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="F25" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G25" s="7" t="s">
+      <c r="P25" s="7" t="s">
         <v>146</v>
       </c>
-      <c r="H25" s="7">
-        <v>3</v>
-      </c>
-      <c r="I25" s="7">
-        <v>2444</v>
-      </c>
-      <c r="J25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>147</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>148</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="M25" s="7">
-        <v>4</v>
-      </c>
-      <c r="N25" s="7">
-        <v>3375</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="B26" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C26" s="7">
-        <v>1</v>
+        <v>90</v>
       </c>
       <c r="D26" s="7">
-        <v>430</v>
+        <v>81840</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="G26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="H26" s="7">
+        <v>100</v>
+      </c>
+      <c r="I26" s="7">
+        <v>84125</v>
+      </c>
+      <c r="J26" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>153</v>
       </c>
-      <c r="F26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G26" s="7" t="s">
+      <c r="M26" s="7">
+        <v>190</v>
+      </c>
+      <c r="N26" s="7">
+        <v>165965</v>
+      </c>
+      <c r="O26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="H26" s="7">
-        <v>2</v>
-      </c>
-      <c r="I26" s="7">
-        <v>1528</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="P26" s="7" t="s">
         <v>155</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>156</v>
-      </c>
-      <c r="M26" s="7">
-        <v>3</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1957</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>157</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2456,13 +2467,13 @@
         <v>101987</v>
       </c>
       <c r="E27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H27" s="7">
         <v>119</v>
@@ -2471,13 +2482,13 @@
         <v>97643</v>
       </c>
       <c r="J27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M27" s="7">
         <v>229</v>
@@ -2486,66 +2497,66 @@
         <v>199630</v>
       </c>
       <c r="O27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q27" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C28" s="7">
-        <v>89</v>
+        <v>7</v>
       </c>
       <c r="D28" s="7">
-        <v>72431</v>
+        <v>5050</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="F28" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="G28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="H28" s="7">
+        <v>5</v>
+      </c>
+      <c r="I28" s="7">
+        <v>3579</v>
+      </c>
+      <c r="J28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="K28" s="7" t="s">
         <v>162</v>
       </c>
-      <c r="G28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>163</v>
       </c>
-      <c r="H28" s="7">
-        <v>115</v>
-      </c>
-      <c r="I28" s="7">
-        <v>86817</v>
-      </c>
-      <c r="J28" s="7" t="s">
+      <c r="M28" s="7">
+        <v>12</v>
+      </c>
+      <c r="N28" s="7">
+        <v>8629</v>
+      </c>
+      <c r="O28" s="7" t="s">
         <v>164</v>
       </c>
-      <c r="K28" s="7" t="s">
-        <v>165</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>166</v>
-      </c>
-      <c r="M28" s="7">
-        <v>204</v>
-      </c>
-      <c r="N28" s="7">
-        <v>159248</v>
-      </c>
-      <c r="O28" s="7" t="s">
-        <v>167</v>
-      </c>
       <c r="P28" s="7" t="s">
-        <v>168</v>
+        <v>98</v>
       </c>
       <c r="Q28" s="7" t="s">
-        <v>169</v>
+        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2554,55 +2565,55 @@
         <v>18</v>
       </c>
       <c r="C29" s="7">
-        <v>14</v>
+        <v>3</v>
       </c>
       <c r="D29" s="7">
-        <v>10855</v>
+        <v>1512</v>
       </c>
       <c r="E29" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="F29" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="G29" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="H29" s="7">
+        <v>1</v>
+      </c>
+      <c r="I29" s="7">
+        <v>568</v>
+      </c>
+      <c r="J29" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="K29" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L29" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="M29" s="7">
+        <v>4</v>
+      </c>
+      <c r="N29" s="7">
+        <v>2080</v>
+      </c>
+      <c r="O29" s="7" t="s">
         <v>170</v>
       </c>
-      <c r="F29" s="7" t="s">
+      <c r="P29" s="7" t="s">
         <v>171</v>
       </c>
-      <c r="G29" s="7" t="s">
+      <c r="Q29" s="7" t="s">
         <v>172</v>
-      </c>
-      <c r="H29" s="7">
-        <v>8</v>
-      </c>
-      <c r="I29" s="7">
-        <v>6820</v>
-      </c>
-      <c r="J29" s="7" t="s">
-        <v>173</v>
-      </c>
-      <c r="K29" s="7" t="s">
-        <v>174</v>
-      </c>
-      <c r="L29" s="7" t="s">
-        <v>175</v>
-      </c>
-      <c r="M29" s="7">
-        <v>22</v>
-      </c>
-      <c r="N29" s="7">
-        <v>17676</v>
-      </c>
-      <c r="O29" s="7" t="s">
-        <v>176</v>
-      </c>
-      <c r="P29" s="7" t="s">
-        <v>177</v>
-      </c>
-      <c r="Q29" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="B30" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C30" s="7">
         <v>4</v>
@@ -2611,13 +2622,13 @@
         <v>3138</v>
       </c>
       <c r="E30" s="7" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2626,13 +2637,13 @@
         <v>1406</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="K30" s="7" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2641,115 +2652,115 @@
         <v>4544</v>
       </c>
       <c r="O30" s="7" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="P30" s="7" t="s">
-        <v>107</v>
+        <v>179</v>
       </c>
       <c r="Q30" s="7" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="B31" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C31" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D31" s="7">
-        <v>1512</v>
+        <v>10855</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="G31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H31" s="7">
+        <v>8</v>
+      </c>
+      <c r="I31" s="7">
+        <v>6820</v>
+      </c>
+      <c r="J31" s="7" t="s">
+        <v>184</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>186</v>
       </c>
-      <c r="F31" s="7" t="s">
+      <c r="M31" s="7">
+        <v>22</v>
+      </c>
+      <c r="N31" s="7">
+        <v>17676</v>
+      </c>
+      <c r="O31" s="7" t="s">
         <v>187</v>
       </c>
-      <c r="G31" s="7" t="s">
+      <c r="P31" s="7" t="s">
         <v>188</v>
       </c>
-      <c r="H31" s="7">
-        <v>1</v>
-      </c>
-      <c r="I31" s="7">
-        <v>568</v>
-      </c>
-      <c r="J31" s="7" t="s">
+      <c r="Q31" s="7" t="s">
         <v>189</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>190</v>
-      </c>
-      <c r="M31" s="7">
-        <v>4</v>
-      </c>
-      <c r="N31" s="7">
-        <v>2080</v>
-      </c>
-      <c r="O31" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>192</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="B32" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C32" s="7">
-        <v>7</v>
+        <v>89</v>
       </c>
       <c r="D32" s="7">
-        <v>5050</v>
+        <v>72431</v>
       </c>
       <c r="E32" s="7" t="s">
-        <v>92</v>
+        <v>190</v>
       </c>
       <c r="F32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="G32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="H32" s="7">
+        <v>115</v>
+      </c>
+      <c r="I32" s="7">
+        <v>86817</v>
+      </c>
+      <c r="J32" s="7" t="s">
+        <v>193</v>
+      </c>
+      <c r="K32" s="7" t="s">
         <v>194</v>
       </c>
-      <c r="G32" s="7" t="s">
+      <c r="L32" s="7" t="s">
         <v>195</v>
       </c>
-      <c r="H32" s="7">
-        <v>5</v>
-      </c>
-      <c r="I32" s="7">
-        <v>3579</v>
-      </c>
-      <c r="J32" s="7" t="s">
+      <c r="M32" s="7">
+        <v>204</v>
+      </c>
+      <c r="N32" s="7">
+        <v>159248</v>
+      </c>
+      <c r="O32" s="7" t="s">
         <v>196</v>
       </c>
-      <c r="K32" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="L32" s="7" t="s">
+      <c r="P32" s="7" t="s">
         <v>197</v>
       </c>
-      <c r="M32" s="7">
-        <v>12</v>
-      </c>
-      <c r="N32" s="7">
-        <v>8629</v>
-      </c>
-      <c r="O32" s="7" t="s">
+      <c r="Q32" s="7" t="s">
         <v>198</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>199</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2764,13 +2775,13 @@
         <v>92986</v>
       </c>
       <c r="E33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H33" s="7">
         <v>131</v>
@@ -2779,13 +2790,13 @@
         <v>99190</v>
       </c>
       <c r="J33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M33" s="7">
         <v>248</v>
@@ -2794,13 +2805,13 @@
         <v>192176</v>
       </c>
       <c r="O33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q33" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.3">
@@ -2811,49 +2822,49 @@
         <v>10</v>
       </c>
       <c r="C34" s="7">
-        <v>393</v>
+        <v>19</v>
       </c>
       <c r="D34" s="7">
-        <v>336671</v>
+        <v>15097</v>
       </c>
       <c r="E34" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F34" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="H34" s="7">
+        <v>15</v>
+      </c>
+      <c r="I34" s="7">
+        <v>11770</v>
+      </c>
+      <c r="J34" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>201</v>
       </c>
-      <c r="F34" s="7" t="s">
+      <c r="L34" s="7" t="s">
         <v>202</v>
       </c>
-      <c r="G34" s="7" t="s">
+      <c r="M34" s="7">
+        <v>34</v>
+      </c>
+      <c r="N34" s="7">
+        <v>26866</v>
+      </c>
+      <c r="O34" s="7" t="s">
         <v>203</v>
       </c>
-      <c r="H34" s="7">
-        <v>406</v>
-      </c>
-      <c r="I34" s="7">
-        <v>307668</v>
-      </c>
-      <c r="J34" s="7" t="s">
+      <c r="P34" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>204</v>
-      </c>
-      <c r="K34" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="L34" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="M34" s="7">
-        <v>799</v>
-      </c>
-      <c r="N34" s="7">
-        <v>644339</v>
-      </c>
-      <c r="O34" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>209</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2862,55 +2873,55 @@
         <v>18</v>
       </c>
       <c r="C35" s="7">
-        <v>56</v>
+        <v>6</v>
       </c>
       <c r="D35" s="7">
-        <v>44396</v>
+        <v>3870</v>
       </c>
       <c r="E35" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="F35" s="7" t="s">
+        <v>205</v>
+      </c>
+      <c r="G35" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" s="7">
+        <v>8</v>
+      </c>
+      <c r="I35" s="7">
+        <v>5786</v>
+      </c>
+      <c r="J35" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="K35" s="7" t="s">
+        <v>208</v>
+      </c>
+      <c r="L35" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="M35" s="7">
+        <v>14</v>
+      </c>
+      <c r="N35" s="7">
+        <v>9655</v>
+      </c>
+      <c r="O35" s="7" t="s">
         <v>210</v>
       </c>
-      <c r="F35" s="7" t="s">
+      <c r="P35" s="7" t="s">
         <v>211</v>
       </c>
-      <c r="G35" s="7" t="s">
+      <c r="Q35" s="7" t="s">
         <v>212</v>
-      </c>
-      <c r="H35" s="7">
-        <v>32</v>
-      </c>
-      <c r="I35" s="7">
-        <v>24239</v>
-      </c>
-      <c r="J35" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K35" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L35" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M35" s="7">
-        <v>88</v>
-      </c>
-      <c r="N35" s="7">
-        <v>68635</v>
-      </c>
-      <c r="O35" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P35" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="Q35" s="7" t="s">
-        <v>218</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="B36" s="5" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="C36" s="7">
         <v>15</v>
@@ -2919,13 +2930,13 @@
         <v>18701</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>219</v>
+        <v>88</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>220</v>
+        <v>213</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>221</v>
+        <v>214</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -2934,13 +2945,13 @@
         <v>10976</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>222</v>
+        <v>215</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>223</v>
+        <v>165</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -2949,115 +2960,115 @@
         <v>29677</v>
       </c>
       <c r="O36" s="7" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="P36" s="7" t="s">
-        <v>137</v>
+        <v>218</v>
       </c>
       <c r="Q36" s="7" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="B37" s="5" t="s">
-        <v>29</v>
+        <v>22</v>
       </c>
       <c r="C37" s="7">
-        <v>6</v>
+        <v>56</v>
       </c>
       <c r="D37" s="7">
-        <v>3870</v>
+        <v>44396</v>
       </c>
       <c r="E37" s="7" t="s">
-        <v>107</v>
+        <v>220</v>
       </c>
       <c r="F37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="G37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="H37" s="7">
+        <v>32</v>
+      </c>
+      <c r="I37" s="7">
+        <v>24239</v>
+      </c>
+      <c r="J37" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>224</v>
+      </c>
+      <c r="L37" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="M37" s="7">
+        <v>88</v>
+      </c>
+      <c r="N37" s="7">
+        <v>68635</v>
+      </c>
+      <c r="O37" s="7" t="s">
+        <v>226</v>
+      </c>
+      <c r="P37" s="7" t="s">
         <v>227</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="Q37" s="7" t="s">
         <v>228</v>
-      </c>
-      <c r="H37" s="7">
-        <v>8</v>
-      </c>
-      <c r="I37" s="7">
-        <v>5786</v>
-      </c>
-      <c r="J37" s="7" t="s">
-        <v>229</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>230</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>231</v>
-      </c>
-      <c r="M37" s="7">
-        <v>14</v>
-      </c>
-      <c r="N37" s="7">
-        <v>9655</v>
-      </c>
-      <c r="O37" s="7" t="s">
-        <v>232</v>
-      </c>
-      <c r="P37" s="7" t="s">
-        <v>233</v>
-      </c>
-      <c r="Q37" s="7" t="s">
-        <v>234</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="B38" s="5" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C38" s="7">
-        <v>19</v>
+        <v>393</v>
       </c>
       <c r="D38" s="7">
-        <v>15097</v>
+        <v>336671</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>196</v>
+        <v>229</v>
       </c>
       <c r="F38" s="7" t="s">
+        <v>230</v>
+      </c>
+      <c r="G38" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="H38" s="7">
+        <v>406</v>
+      </c>
+      <c r="I38" s="7">
+        <v>307668</v>
+      </c>
+      <c r="J38" s="7" t="s">
+        <v>232</v>
+      </c>
+      <c r="K38" s="7" t="s">
+        <v>233</v>
+      </c>
+      <c r="L38" s="7" t="s">
+        <v>234</v>
+      </c>
+      <c r="M38" s="7">
+        <v>799</v>
+      </c>
+      <c r="N38" s="7">
+        <v>644339</v>
+      </c>
+      <c r="O38" s="7" t="s">
         <v>235</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="P38" s="7" t="s">
         <v>236</v>
       </c>
-      <c r="H38" s="7">
-        <v>15</v>
-      </c>
-      <c r="I38" s="7">
-        <v>11770</v>
-      </c>
-      <c r="J38" s="7" t="s">
+      <c r="Q38" s="7" t="s">
         <v>237</v>
-      </c>
-      <c r="K38" s="7" t="s">
-        <v>238</v>
-      </c>
-      <c r="L38" s="7" t="s">
-        <v>239</v>
-      </c>
-      <c r="M38" s="7">
-        <v>34</v>
-      </c>
-      <c r="N38" s="7">
-        <v>26866</v>
-      </c>
-      <c r="O38" s="7" t="s">
-        <v>240</v>
-      </c>
-      <c r="P38" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q38" s="7" t="s">
-        <v>241</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3072,13 +3083,13 @@
         <v>418734</v>
       </c>
       <c r="E39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="F39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="G39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="H39" s="7">
         <v>475</v>
@@ -3087,13 +3098,13 @@
         <v>360438</v>
       </c>
       <c r="J39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="K39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="L39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="M39" s="7">
         <v>964</v>
@@ -3102,13 +3113,18 @@
         <v>779172</v>
       </c>
       <c r="O39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="P39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="Q39" s="7" t="s">
-        <v>13</v>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>238</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/IP07A27_2023-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/IP07A27_2023-Habitat-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5F75210B-4F7A-4D3B-BC0F-A48CE0F69A95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D6DFAACC-B8A6-497D-879E-8C70D3A8CC9D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{1C743C56-4389-45C9-839B-662349922FC4}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B2221E46-853E-45E4-9F0E-2140095AE534}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="236">
   <si>
     <t>Menores según frecuencia de tener problemas para dormir en 2023 (Tasa respuesta: 50,21%)</t>
   </si>
@@ -65,7 +65,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Siempre</t>
@@ -83,13 +83,13 @@
     <t>8,93%</t>
   </si>
   <si>
-    <t>34,46%</t>
+    <t>34,58%</t>
   </si>
   <si>
     <t>5,34%</t>
   </si>
   <si>
-    <t>21,31%</t>
+    <t>25,62%</t>
   </si>
   <si>
     <t>Casi siempre</t>
@@ -110,13 +110,13 @@
     <t>6,58%</t>
   </si>
   <si>
-    <t>33,85%</t>
+    <t>28,82%</t>
   </si>
   <si>
     <t>3,94%</t>
   </si>
   <si>
-    <t>17,46%</t>
+    <t>18,64%</t>
   </si>
   <si>
     <t>Nunca</t>
@@ -134,622 +134,613 @@
     <t>84,49%</t>
   </si>
   <si>
-    <t>55,9%</t>
+    <t>58,03%</t>
   </si>
   <si>
     <t>90,72%</t>
   </si>
   <si>
-    <t>71,21%</t>
-  </si>
-  <si>
-    <t>2/10</t>
+    <t>71,29%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>3,97%</t>
   </si>
   <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>10,8%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>12,56%</t>
+  </si>
+  <si>
+    <t>3,6%</t>
+  </si>
+  <si>
+    <t>1,13%</t>
+  </si>
+  <si>
+    <t>8,34%</t>
+  </si>
+  <si>
     <t>0,78%</t>
   </si>
   <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>12,65%</t>
-  </si>
-  <si>
-    <t>3,6%</t>
-  </si>
-  <si>
-    <t>1,3%</t>
-  </si>
-  <si>
-    <t>8,99%</t>
-  </si>
-  <si>
-    <t>3,84%</t>
+    <t>4,88%</t>
   </si>
   <si>
     <t>2,64%</t>
   </si>
   <si>
-    <t>9,83%</t>
+    <t>9,18%</t>
   </si>
   <si>
     <t>1,57%</t>
   </si>
   <si>
-    <t>0,44%</t>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>4,67%</t>
+  </si>
+  <si>
+    <t>7,18%</t>
+  </si>
+  <si>
+    <t>0,61%</t>
+  </si>
+  <si>
+    <t>22,24%</t>
+  </si>
+  <si>
+    <t>2,85%</t>
+  </si>
+  <si>
+    <t>10,28%</t>
+  </si>
+  <si>
+    <t>5,33%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>15,66%</t>
+  </si>
+  <si>
+    <t>13,0%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>10,08%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>21,07%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>75,07%</t>
+  </si>
+  <si>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>84,94%</t>
+  </si>
+  <si>
+    <t>81,31%</t>
+  </si>
+  <si>
+    <t>69,17%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>77,74%</t>
+  </si>
+  <si>
+    <t>68,47%</t>
+  </si>
+  <si>
+    <t>85,25%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,19%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>4,1%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
   </si>
   <si>
     <t>4,42%</t>
   </si>
   <si>
-    <t>7,18%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>21,18%</t>
-  </si>
-  <si>
-    <t>2,85%</t>
-  </si>
-  <si>
-    <t>13,33%</t>
-  </si>
-  <si>
-    <t>5,33%</t>
-  </si>
-  <si>
-    <t>1,58%</t>
-  </si>
-  <si>
-    <t>13,84%</t>
-  </si>
-  <si>
-    <t>13,0%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>22,86%</t>
-  </si>
-  <si>
-    <t>10,08%</t>
-  </si>
-  <si>
-    <t>3,92%</t>
-  </si>
-  <si>
-    <t>20,14%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>6,95%</t>
-  </si>
-  <si>
-    <t>18,79%</t>
-  </si>
-  <si>
-    <t>75,07%</t>
-  </si>
-  <si>
-    <t>61,01%</t>
-  </si>
-  <si>
-    <t>85,22%</t>
-  </si>
-  <si>
-    <t>81,31%</t>
-  </si>
-  <si>
-    <t>69,51%</t>
-  </si>
-  <si>
-    <t>90,56%</t>
-  </si>
-  <si>
-    <t>77,74%</t>
-  </si>
-  <si>
-    <t>68,73%</t>
-  </si>
-  <si>
-    <t>84,56%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>4,1%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
     <t>2,55%</t>
   </si>
   <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>4,71%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,54%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>2,99%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,68%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
+    <t>2,47%</t>
+  </si>
+  <si>
+    <t>1,0%</t>
+  </si>
+  <si>
+    <t>5,45%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>3,58%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>8,11%</t>
+  </si>
+  <si>
+    <t>5,51%</t>
+  </si>
+  <si>
+    <t>11,74%</t>
+  </si>
+  <si>
+    <t>83,71%</t>
+  </si>
+  <si>
+    <t>76,78%</t>
+  </si>
+  <si>
+    <t>89,18%</t>
+  </si>
+  <si>
+    <t>84,62%</t>
+  </si>
+  <si>
+    <t>76,22%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>84,08%</t>
+  </si>
+  <si>
+    <t>79,38%</t>
+  </si>
+  <si>
+    <t>87,7%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>1,56%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>2,84%</t>
+  </si>
+  <si>
+    <t>0,91%</t>
+  </si>
+  <si>
+    <t>4,32%</t>
+  </si>
+  <si>
+    <t>2,5%</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>22,44%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>10,64%</t>
+  </si>
+  <si>
+    <t>6,27%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>11,1%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>18,75%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
+  </si>
+  <si>
+    <t>4,72%</t>
+  </si>
+  <si>
+    <t>12,4%</t>
+  </si>
+  <si>
+    <t>80,25%</t>
+  </si>
+  <si>
+    <t>68,25%</t>
+  </si>
+  <si>
+    <t>87,5%</t>
+  </si>
+  <si>
+    <t>86,16%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
+  </si>
+  <si>
+    <t>91,2%</t>
+  </si>
+  <si>
+    <t>83,14%</t>
+  </si>
+  <si>
+    <t>76,1%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>2,04%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>1,37%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>7,63%</t>
+  </si>
+  <si>
+    <t>1,63%</t>
+  </si>
+  <si>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>5,5%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,57%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,32%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>3,37%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,79%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>0,8%</t>
+  </si>
+  <si>
+    <t>5,0%</t>
+  </si>
+  <si>
+    <t>11,67%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>18,05%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>12,79%</t>
+  </si>
+  <si>
+    <t>9,2%</t>
+  </si>
+  <si>
+    <t>5,92%</t>
+  </si>
+  <si>
+    <t>13,43%</t>
+  </si>
+  <si>
+    <t>77,89%</t>
+  </si>
+  <si>
+    <t>69,59%</t>
+  </si>
+  <si>
+    <t>84,45%</t>
+  </si>
+  <si>
+    <t>87,53%</t>
+  </si>
+  <si>
+    <t>81,27%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>82,87%</t>
+  </si>
+  <si>
+    <t>77,94%</t>
+  </si>
+  <si>
+    <t>87,66%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>5,98%</t>
+  </si>
+  <si>
+    <t>3,27%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,44%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>0,34%</t>
+  </si>
+  <si>
+    <t>1,61%</t>
+  </si>
+  <si>
+    <t>3,29%</t>
+  </si>
+  <si>
+    <t>1,24%</t>
+  </si>
+  <si>
+    <t>0,69%</t>
+  </si>
+  <si>
+    <t>2,08%</t>
   </si>
   <si>
     <t>4,47%</t>
   </si>
   <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>2,4%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>5,74%</t>
-  </si>
-  <si>
-    <t>2,99%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>7,97%</t>
-  </si>
-  <si>
-    <t>2,47%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>13,68%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>3,24%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>8,11%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>83,71%</t>
-  </si>
-  <si>
-    <t>77,34%</t>
-  </si>
-  <si>
-    <t>89,32%</t>
-  </si>
-  <si>
-    <t>84,62%</t>
-  </si>
-  <si>
-    <t>77,7%</t>
-  </si>
-  <si>
-    <t>90,62%</t>
-  </si>
-  <si>
-    <t>84,08%</t>
-  </si>
-  <si>
-    <t>79,07%</t>
-  </si>
-  <si>
-    <t>88,18%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,22%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>5,52%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,91%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>4,29%</t>
-  </si>
-  <si>
-    <t>2,34%</t>
-  </si>
-  <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>9,94%</t>
-  </si>
-  <si>
-    <t>6,27%</t>
-  </si>
-  <si>
-    <t>13,06%</t>
-  </si>
-  <si>
-    <t>11,1%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>18,04%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>10,26%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>4,96%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>80,25%</t>
-  </si>
-  <si>
-    <t>67,27%</t>
-  </si>
-  <si>
-    <t>87,86%</t>
-  </si>
-  <si>
-    <t>86,16%</t>
-  </si>
-  <si>
-    <t>79,45%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>83,14%</t>
-  </si>
-  <si>
-    <t>76,37%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>11,05%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>1,19%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>0,57%</t>
-  </si>
-  <si>
-    <t>2,38%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,32%</t>
-  </si>
-  <si>
-    <t>2,97%</t>
-  </si>
-  <si>
-    <t>3,37%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>1,42%</t>
-  </si>
-  <si>
-    <t>4,95%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>11,67%</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>18,58%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>13,02%</t>
-  </si>
-  <si>
-    <t>9,2%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>13,54%</t>
-  </si>
-  <si>
-    <t>77,89%</t>
-  </si>
-  <si>
-    <t>69,34%</t>
-  </si>
-  <si>
-    <t>85,1%</t>
-  </si>
-  <si>
-    <t>87,53%</t>
-  </si>
-  <si>
-    <t>80,54%</t>
-  </si>
-  <si>
-    <t>92,42%</t>
-  </si>
-  <si>
-    <t>82,87%</t>
-  </si>
-  <si>
-    <t>77,51%</t>
-  </si>
-  <si>
-    <t>87,02%</t>
-  </si>
-  <si>
-    <t>6,08%</t>
-  </si>
-  <si>
-    <t>3,27%</t>
-  </si>
-  <si>
-    <t>1,93%</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>4,87%</t>
-  </si>
-  <si>
-    <t>0,4%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,61%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>1,24%</t>
-  </si>
-  <si>
-    <t>0,7%</t>
-  </si>
-  <si>
-    <t>2,23%</t>
-  </si>
-  <si>
-    <t>2,32%</t>
-  </si>
-  <si>
-    <t>8,4%</t>
+    <t>2,15%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
   </si>
   <si>
     <t>3,05%</t>
   </si>
   <si>
-    <t>4,92%</t>
+    <t>4,99%</t>
   </si>
   <si>
     <t>3,81%</t>
   </si>
   <si>
-    <t>2,58%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
+    <t>2,46%</t>
+  </si>
+  <si>
+    <t>5,73%</t>
   </si>
   <si>
     <t>10,6%</t>
   </si>
   <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
+    <t>7,91%</t>
+  </si>
+  <si>
+    <t>13,4%</t>
   </si>
   <si>
     <t>6,72%</t>
   </si>
   <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>9,35%</t>
+    <t>4,73%</t>
+  </si>
+  <si>
+    <t>9,44%</t>
   </si>
   <si>
     <t>8,81%</t>
   </si>
   <si>
-    <t>7,12%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
+    <t>10,83%</t>
   </si>
   <si>
     <t>80,4%</t>
   </si>
   <si>
-    <t>76,17%</t>
-  </si>
-  <si>
-    <t>84,19%</t>
+    <t>75,94%</t>
+  </si>
+  <si>
+    <t>84,53%</t>
   </si>
   <si>
     <t>85,36%</t>
   </si>
   <si>
-    <t>82,01%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
+    <t>81,78%</t>
+  </si>
+  <si>
+    <t>88,56%</t>
   </si>
   <si>
     <t>82,7%</t>
   </si>
   <si>
-    <t>79,74%</t>
-  </si>
-  <si>
-    <t>85,11%</t>
+    <t>79,96%</t>
+  </si>
+  <si>
+    <t>85,04%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -1164,7 +1155,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{845523BE-4713-4CF6-826A-8535C7F2F6E2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{47FB6400-6C14-4C8C-BBE6-ECB99C39E20D}">
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -1647,13 +1638,13 @@
         <v>539</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="F11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H11" s="7">
         <v>2</v>
@@ -1662,13 +1653,13 @@
         <v>1363</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="K11" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="M11" s="7">
         <v>3</v>
@@ -1677,13 +1668,13 @@
         <v>1903</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1698,13 +1689,13 @@
         <v>4976</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="H12" s="7">
         <v>2</v>
@@ -1713,13 +1704,13 @@
         <v>1472</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="M12" s="7">
         <v>5</v>
@@ -1728,13 +1719,13 @@
         <v>6448</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -1749,13 +1740,13 @@
         <v>9005</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="H13" s="7">
         <v>6</v>
@@ -1764,13 +1755,13 @@
         <v>5203</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="M13" s="7">
         <v>17</v>
@@ -1779,13 +1770,13 @@
         <v>14209</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>66</v>
+        <v>13</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1934,13 +1925,13 @@
         <v>11057</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>49</v>
+        <v>83</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1955,13 +1946,13 @@
         <v>888</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -1970,7 +1961,7 @@
         <v>1410</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="K17" s="7" t="s">
         <v>11</v>
@@ -2248,7 +2239,7 @@
         <v>124</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>86</v>
+        <v>125</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2263,13 +2254,13 @@
         <v>931</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F23" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H23" s="7">
         <v>3</v>
@@ -2278,10 +2269,10 @@
         <v>2444</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>128</v>
+        <v>49</v>
       </c>
       <c r="L23" s="7" t="s">
         <v>129</v>
@@ -2296,10 +2287,10 @@
         <v>130</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>93</v>
+        <v>131</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,10 +2308,10 @@
         <v>20</v>
       </c>
       <c r="F24" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>132</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>133</v>
       </c>
       <c r="H24" s="7">
         <v>7</v>
@@ -2329,13 +2320,13 @@
         <v>5039</v>
       </c>
       <c r="J24" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="K24" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="K24" s="7" t="s">
+      <c r="L24" s="7" t="s">
         <v>135</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="M24" s="7">
         <v>12</v>
@@ -2344,10 +2335,10 @@
         <v>12507</v>
       </c>
       <c r="O24" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="P24" s="7" t="s">
         <v>137</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>39</v>
       </c>
       <c r="Q24" s="7" t="s">
         <v>138</v>
@@ -2383,10 +2374,10 @@
         <v>142</v>
       </c>
       <c r="K25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L25" s="7" t="s">
         <v>143</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>144</v>
       </c>
       <c r="M25" s="7">
         <v>20</v>
@@ -2395,13 +2386,13 @@
         <v>15825</v>
       </c>
       <c r="O25" s="7" t="s">
+        <v>144</v>
+      </c>
+      <c r="P25" s="7" t="s">
         <v>145</v>
       </c>
-      <c r="P25" s="7" t="s">
+      <c r="Q25" s="7" t="s">
         <v>146</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2416,13 +2407,13 @@
         <v>81840</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="F26" s="7" t="s">
         <v>148</v>
       </c>
-      <c r="F26" s="7" t="s">
+      <c r="G26" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>150</v>
       </c>
       <c r="H26" s="7">
         <v>100</v>
@@ -2431,13 +2422,13 @@
         <v>84125</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>151</v>
       </c>
-      <c r="K26" s="7" t="s">
+      <c r="L26" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M26" s="7">
         <v>190</v>
@@ -2446,13 +2437,13 @@
         <v>165965</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="P26" s="7" t="s">
         <v>154</v>
       </c>
-      <c r="P26" s="7" t="s">
+      <c r="Q26" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2508,7 +2499,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B28" s="5" t="s">
         <v>10</v>
@@ -2520,13 +2511,13 @@
         <v>5050</v>
       </c>
       <c r="E28" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="F28" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="F28" s="7" t="s">
+      <c r="G28" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="G28" s="7" t="s">
-        <v>160</v>
       </c>
       <c r="H28" s="7">
         <v>5</v>
@@ -2535,13 +2526,13 @@
         <v>3579</v>
       </c>
       <c r="J28" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="K28" s="7" t="s">
         <v>161</v>
       </c>
-      <c r="K28" s="7" t="s">
+      <c r="L28" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="L28" s="7" t="s">
-        <v>163</v>
       </c>
       <c r="M28" s="7">
         <v>12</v>
@@ -2550,13 +2541,13 @@
         <v>8629</v>
       </c>
       <c r="O28" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P28" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q28" s="7" t="s">
         <v>164</v>
-      </c>
-      <c r="P28" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="Q28" s="7" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.3">
@@ -2625,10 +2616,10 @@
         <v>173</v>
       </c>
       <c r="F30" s="7" t="s">
-        <v>174</v>
+        <v>99</v>
       </c>
       <c r="G30" s="7" t="s">
-        <v>175</v>
+        <v>162</v>
       </c>
       <c r="H30" s="7">
         <v>2</v>
@@ -2637,13 +2628,13 @@
         <v>1406</v>
       </c>
       <c r="J30" s="7" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="K30" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L30" s="7" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="M30" s="7">
         <v>6</v>
@@ -2652,13 +2643,13 @@
         <v>4544</v>
       </c>
       <c r="O30" s="7" t="s">
+        <v>176</v>
+      </c>
+      <c r="P30" s="7" t="s">
+        <v>177</v>
+      </c>
+      <c r="Q30" s="7" t="s">
         <v>178</v>
-      </c>
-      <c r="P30" s="7" t="s">
-        <v>179</v>
-      </c>
-      <c r="Q30" s="7" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.3">
@@ -2673,13 +2664,13 @@
         <v>10855</v>
       </c>
       <c r="E31" s="7" t="s">
+        <v>179</v>
+      </c>
+      <c r="F31" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="G31" s="7" t="s">
         <v>181</v>
-      </c>
-      <c r="F31" s="7" t="s">
-        <v>182</v>
-      </c>
-      <c r="G31" s="7" t="s">
-        <v>183</v>
       </c>
       <c r="H31" s="7">
         <v>8</v>
@@ -2688,13 +2679,13 @@
         <v>6820</v>
       </c>
       <c r="J31" s="7" t="s">
+        <v>182</v>
+      </c>
+      <c r="K31" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="L31" s="7" t="s">
         <v>184</v>
-      </c>
-      <c r="K31" s="7" t="s">
-        <v>185</v>
-      </c>
-      <c r="L31" s="7" t="s">
-        <v>186</v>
       </c>
       <c r="M31" s="7">
         <v>22</v>
@@ -2703,13 +2694,13 @@
         <v>17676</v>
       </c>
       <c r="O31" s="7" t="s">
+        <v>185</v>
+      </c>
+      <c r="P31" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="Q31" s="7" t="s">
         <v>187</v>
-      </c>
-      <c r="P31" s="7" t="s">
-        <v>188</v>
-      </c>
-      <c r="Q31" s="7" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.3">
@@ -2724,13 +2715,13 @@
         <v>72431</v>
       </c>
       <c r="E32" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="F32" s="7" t="s">
-        <v>191</v>
-      </c>
-      <c r="G32" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="H32" s="7">
         <v>115</v>
@@ -2739,13 +2730,13 @@
         <v>86817</v>
       </c>
       <c r="J32" s="7" t="s">
+        <v>191</v>
+      </c>
+      <c r="K32" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="L32" s="7" t="s">
         <v>193</v>
-      </c>
-      <c r="K32" s="7" t="s">
-        <v>194</v>
-      </c>
-      <c r="L32" s="7" t="s">
-        <v>195</v>
       </c>
       <c r="M32" s="7">
         <v>204</v>
@@ -2754,13 +2745,13 @@
         <v>159248</v>
       </c>
       <c r="O32" s="7" t="s">
+        <v>194</v>
+      </c>
+      <c r="P32" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="Q32" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="P32" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q32" s="7" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.3">
@@ -2828,13 +2819,13 @@
         <v>15097</v>
       </c>
       <c r="E34" s="7" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="F34" s="7" t="s">
-        <v>120</v>
+        <v>197</v>
       </c>
       <c r="G34" s="7" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="H34" s="7">
         <v>15</v>
@@ -2843,13 +2834,13 @@
         <v>11770</v>
       </c>
       <c r="J34" s="7" t="s">
+        <v>199</v>
+      </c>
+      <c r="K34" s="7" t="s">
         <v>200</v>
       </c>
-      <c r="K34" s="7" t="s">
-        <v>201</v>
-      </c>
       <c r="L34" s="7" t="s">
-        <v>202</v>
+        <v>100</v>
       </c>
       <c r="M34" s="7">
         <v>34</v>
@@ -2858,13 +2849,13 @@
         <v>26866</v>
       </c>
       <c r="O34" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="P34" s="7" t="s">
+        <v>202</v>
+      </c>
+      <c r="Q34" s="7" t="s">
         <v>203</v>
-      </c>
-      <c r="P34" s="7" t="s">
-        <v>132</v>
-      </c>
-      <c r="Q34" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.3">
@@ -2882,10 +2873,10 @@
         <v>89</v>
       </c>
       <c r="F35" s="7" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="G35" s="7" t="s">
-        <v>206</v>
+        <v>134</v>
       </c>
       <c r="H35" s="7">
         <v>8</v>
@@ -2894,13 +2885,13 @@
         <v>5786</v>
       </c>
       <c r="J35" s="7" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="K35" s="7" t="s">
-        <v>208</v>
+        <v>44</v>
       </c>
       <c r="L35" s="7" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="M35" s="7">
         <v>14</v>
@@ -2909,13 +2900,13 @@
         <v>9655</v>
       </c>
       <c r="O35" s="7" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="P35" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="Q35" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.3">
@@ -2930,13 +2921,13 @@
         <v>18701</v>
       </c>
       <c r="E36" s="7" t="s">
-        <v>88</v>
+        <v>210</v>
       </c>
       <c r="F36" s="7" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="G36" s="7" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="H36" s="7">
         <v>14</v>
@@ -2945,13 +2936,13 @@
         <v>10976</v>
       </c>
       <c r="J36" s="7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="K36" s="7" t="s">
-        <v>165</v>
+        <v>130</v>
       </c>
       <c r="L36" s="7" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="M36" s="7">
         <v>29</v>
@@ -2960,13 +2951,13 @@
         <v>29677</v>
       </c>
       <c r="O36" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="P36" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="Q36" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="P36" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="Q36" s="7" t="s">
-        <v>219</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.3">
@@ -2981,13 +2972,13 @@
         <v>44396</v>
       </c>
       <c r="E37" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="F37" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="G37" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="F37" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="G37" s="7" t="s">
-        <v>222</v>
       </c>
       <c r="H37" s="7">
         <v>32</v>
@@ -2996,13 +2987,13 @@
         <v>24239</v>
       </c>
       <c r="J37" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="K37" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="L37" s="7" t="s">
         <v>223</v>
-      </c>
-      <c r="K37" s="7" t="s">
-        <v>224</v>
-      </c>
-      <c r="L37" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M37" s="7">
         <v>88</v>
@@ -3011,13 +3002,13 @@
         <v>68635</v>
       </c>
       <c r="O37" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="P37" s="7" t="s">
-        <v>227</v>
+        <v>129</v>
       </c>
       <c r="Q37" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.3">
@@ -3032,13 +3023,13 @@
         <v>336671</v>
       </c>
       <c r="E38" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F38" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G38" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="H38" s="7">
         <v>406</v>
@@ -3047,13 +3038,13 @@
         <v>307668</v>
       </c>
       <c r="J38" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="K38" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="L38" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="M38" s="7">
         <v>799</v>
@@ -3062,13 +3053,13 @@
         <v>644339</v>
       </c>
       <c r="O38" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="P38" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="Q38" s="7" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.3">
@@ -3124,7 +3115,7 @@
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
     </row>
   </sheetData>
